--- a/REGULAR/CTO/SALONGA LUCY.xlsx
+++ b/REGULAR/CTO/SALONGA LUCY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="289">
   <si>
     <t>PERIOD</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>UT(0-1-31)</t>
+  </si>
+  <si>
+    <t>UT(0-1-15)</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1926,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A377" activePane="bottomLeft"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="E393" sqref="E393"/>
+      <selection pane="bottomLeft" activeCell="F392" sqref="F392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2087,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.124000000000024</v>
+        <v>98.968000000000018</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10530,11 +10533,15 @@
       <c r="A386" s="40">
         <v>44682</v>
       </c>
-      <c r="B386" s="20"/>
+      <c r="B386" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="C386" s="13">
         <v>1.25</v>
       </c>
-      <c r="D386" s="39"/>
+      <c r="D386" s="39">
+        <v>0.15600000000000003</v>
+      </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
       <c r="G386" s="13">
@@ -11620,11 +11627,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.19</v>
+        <v>0.15600000000000003</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11673,7 +11680,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>199.87400000000002</v>
+        <v>199.71800000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/SALONGA LUCY.xlsx
+++ b/REGULAR/CTO/SALONGA LUCY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="291">
   <si>
     <t>PERIOD</t>
   </si>
@@ -887,9 +887,6 @@
     <t>UT(0-0-24)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-1-45)</t>
   </si>
   <si>
@@ -900,6 +897,15 @@
   </si>
   <si>
     <t>UT(0-1-15)</t>
+  </si>
+  <si>
+    <t>UT(0-2-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-26)</t>
+  </si>
+  <si>
+    <t>9/29, 10/3/2023</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1597,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K438"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K440" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K440"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1921,12 +1927,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K438"/>
+  <dimension ref="A2:K440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A377" activePane="bottomLeft"/>
-      <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="F392" sqref="F392"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A392" activePane="bottomLeft"/>
+      <selection activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="K408" sqref="K408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2093,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.968000000000018</v>
+        <v>95.14100000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2097,7 +2103,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.75</v>
+        <v>106.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10506,32 +10512,32 @@
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
       <c r="K384" s="49">
-        <v>44077</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B385" s="20"/>
-      <c r="C385" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D385" s="39"/>
+      <c r="A385" s="40"/>
+      <c r="B385" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C385" s="13"/>
+      <c r="D385" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G385" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
+      <c r="K385" s="49"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>44682</v>
+        <v>43922</v>
       </c>
       <c r="B386" s="20" t="s">
         <v>288</v>
@@ -10540,7 +10546,7 @@
         <v>1.25</v>
       </c>
       <c r="D386" s="39">
-        <v>0.15600000000000003</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
@@ -10555,7 +10561,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B387" s="20" t="s">
         <v>287</v>
@@ -10564,7 +10570,7 @@
         <v>1.25</v>
       </c>
       <c r="D387" s="39">
-        <v>0.19</v>
+        <v>0.15600000000000003</v>
       </c>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
@@ -10579,7 +10585,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B388" s="20" t="s">
         <v>286</v>
@@ -10588,7 +10594,7 @@
         <v>1.25</v>
       </c>
       <c r="D388" s="39">
-        <v>0.127</v>
+        <v>0.19</v>
       </c>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
@@ -10603,61 +10609,61 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="C389" s="13">
         <v>1.25</v>
       </c>
-      <c r="D389" s="39"/>
+      <c r="D389" s="39">
+        <v>0.127</v>
+      </c>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
       <c r="G389" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H389" s="39">
-        <v>1</v>
-      </c>
+      <c r="H389" s="39"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
-      <c r="K389" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K389" s="20"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="40"/>
+      <c r="A390" s="40">
+        <v>44774</v>
+      </c>
       <c r="B390" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C390" s="13"/>
-      <c r="D390" s="39">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C390" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D390" s="39"/>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H390" s="39"/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H390" s="39">
+        <v>1</v>
+      </c>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="49">
-        <v>44785</v>
+      <c r="K390" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="C391" s="13"/>
-      <c r="D391" s="39">
-        <v>0.219</v>
-      </c>
+      <c r="D391" s="39"/>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
       <c r="G391" s="13" t="str">
@@ -10667,72 +10673,70 @@
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
+      <c r="K391" s="49">
+        <v>44785</v>
+      </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C392" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D392" s="39"/>
+        <v>284</v>
+      </c>
+      <c r="C392" s="13"/>
+      <c r="D392" s="39">
+        <v>0.219</v>
+      </c>
       <c r="E392" s="9"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H392" s="39">
-        <v>3</v>
-      </c>
+      <c r="G392" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="39"/>
       <c r="I392" s="9"/>
       <c r="J392" s="11"/>
-      <c r="K392" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K392" s="20"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="40"/>
+      <c r="A393" s="40">
+        <v>44805</v>
+      </c>
       <c r="B393" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C393" s="13"/>
+        <v>277</v>
+      </c>
+      <c r="C393" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D393" s="39">
-        <v>5.000000000000001E-2</v>
+        <v>3</v>
       </c>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G393" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H393" s="39"/>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
-      <c r="K393" s="20"/>
+      <c r="K393" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C394" s="13">
-        <v>1.25</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C394" s="13"/>
       <c r="D394" s="39">
-        <v>0.14200000000000002</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G394" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H394" s="39"/>
       <c r="I394" s="9"/>
@@ -10741,16 +10745,16 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
       </c>
       <c r="D395" s="39">
-        <v>0.33500000000000002</v>
+        <v>0.14200000000000002</v>
       </c>
       <c r="E395" s="9"/>
       <c r="F395" s="20"/>
@@ -10765,16 +10769,16 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C396" s="13">
         <v>1.25</v>
       </c>
       <c r="D396" s="39">
-        <v>0.25600000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
@@ -10788,17 +10792,23 @@
       <c r="K396" s="20"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B397" s="20"/>
-      <c r="C397" s="13"/>
-      <c r="D397" s="39"/>
+      <c r="A397" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B397" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D397" s="39">
+        <v>0.25600000000000001</v>
+      </c>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
@@ -10806,43 +10816,37 @@
       <c r="K397" s="20"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="40">
-        <v>44957</v>
-      </c>
+      <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C398" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D398" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="C398" s="13"/>
+      <c r="D398" s="39">
+        <v>2</v>
+      </c>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G398" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
-      <c r="K398" s="49">
-        <v>44932</v>
-      </c>
+      <c r="K398" s="20"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="40">
-        <v>44985</v>
+      <c r="A399" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="B399" s="20"/>
-      <c r="C399" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C399" s="13"/>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G399" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
@@ -10851,17 +10855,15 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
       </c>
-      <c r="D400" s="39">
-        <v>1</v>
-      </c>
+      <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
       <c r="G400" s="13">
@@ -10872,12 +10874,12 @@
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="49">
-        <v>45001</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45046</v>
+        <v>44985</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13">
@@ -10897,13 +10899,17 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B402" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B402" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C402" s="13">
         <v>1.25</v>
       </c>
-      <c r="D402" s="39"/>
+      <c r="D402" s="39">
+        <v>1</v>
+      </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
       <c r="G402" s="13">
@@ -10913,15 +10919,15 @@
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
+      <c r="K402" s="49">
+        <v>45001</v>
+      </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B403" s="20" t="s">
-        <v>84</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B403" s="20"/>
       <c r="C403" s="13">
         <v>1.25</v>
       </c>
@@ -10935,13 +10941,11 @@
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
-      <c r="K403" s="20" t="s">
-        <v>279</v>
-      </c>
+      <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45138</v>
+        <v>45077</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13">
@@ -10961,34 +10965,42 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B405" s="20"/>
-      <c r="C405" s="13"/>
+        <v>45107</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="20" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="B406" s="20"/>
-      <c r="C406" s="13"/>
+      <c r="C406" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
@@ -10997,16 +11009,18 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45230</v>
+        <v>45169</v>
       </c>
       <c r="B407" s="20"/>
-      <c r="C407" s="13"/>
+      <c r="C407" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D407" s="39"/>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G407" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
@@ -11015,25 +11029,33 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B408" s="20"/>
-      <c r="C408" s="13"/>
-      <c r="D408" s="39"/>
+        <v>45199</v>
+      </c>
+      <c r="B408" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C408" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D408" s="39">
+        <v>2</v>
+      </c>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G408" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H408" s="39"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="20"/>
+      <c r="K408" s="20" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45291</v>
+        <v>45230</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11050,7 +11072,9 @@
       <c r="K409" s="20"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40"/>
+      <c r="A410" s="40">
+        <v>45260</v>
+      </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
@@ -11066,7 +11090,9 @@
       <c r="K410" s="20"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40"/>
+      <c r="A411" s="40">
+        <v>45291</v>
+      </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
       <c r="D411" s="39"/>
@@ -11498,20 +11524,52 @@
       <c r="K437" s="20"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="41"/>
-      <c r="B438" s="15"/>
-      <c r="C438" s="42"/>
-      <c r="D438" s="43"/>
+      <c r="A438" s="40"/>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="39"/>
       <c r="E438" s="9"/>
-      <c r="F438" s="15"/>
-      <c r="G438" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H438" s="43"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="39"/>
       <c r="I438" s="9"/>
-      <c r="J438" s="12"/>
-      <c r="K438" s="15"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="20"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="40"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="39"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="20"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="41"/>
+      <c r="B440" s="15"/>
+      <c r="C440" s="42"/>
+      <c r="D440" s="43"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="15"/>
+      <c r="G440" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="43"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="12"/>
+      <c r="K440" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11624,14 +11682,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.15600000000000003</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11680,7 +11738,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>199.71800000000002</v>
+        <v>201.39100000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/SALONGA LUCY.xlsx
+++ b/REGULAR/CTO/SALONGA LUCY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B7705-A73E-4860-B961-7CF7C0D644A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="298">
   <si>
     <t>PERIOD</t>
   </si>
@@ -907,12 +906,33 @@
   </si>
   <si>
     <t>9/29, 10/3/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-44)</t>
+  </si>
+  <si>
+    <t>11/16/2023 (13)</t>
+  </si>
+  <si>
+    <t>UT(0-1-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-35)</t>
+  </si>
+  <si>
+    <t>UT(0-0-31)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1581,7 +1601,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1598,26 +1618,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K440" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K440" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K446" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K446"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1924,34 +1944,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K440"/>
+  <dimension ref="A2:K446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A404" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A398" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F13"/>
-      <selection pane="bottomLeft" activeCell="K412" sqref="K412"/>
+      <selection pane="bottomLeft" activeCell="K406" sqref="K406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1972,7 +1992,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +2012,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2032,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2020,7 +2040,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2033,7 +2053,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2050,7 +2070,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2094,7 +2114,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>95.64100000000002</v>
+        <v>93.027999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2104,12 +2124,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>107.75</v>
+        <v>109</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>89</v>
       </c>
@@ -2128,7 +2148,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37987</v>
       </c>
@@ -2148,7 +2168,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>38018</v>
       </c>
@@ -2168,7 +2188,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>38047</v>
       </c>
@@ -2188,7 +2208,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>38078</v>
       </c>
@@ -2212,7 +2232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>38108</v>
       </c>
@@ -2232,7 +2252,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>38139</v>
       </c>
@@ -2252,7 +2272,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>38169</v>
       </c>
@@ -2276,7 +2296,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>38200</v>
       </c>
@@ -2300,7 +2320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>104</v>
@@ -2320,7 +2340,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>38231</v>
       </c>
@@ -2346,7 +2366,7 @@
         <v>38231</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>82</v>
@@ -2368,7 +2388,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>105</v>
@@ -2388,7 +2408,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>38261</v>
       </c>
@@ -2412,7 +2432,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>82</v>
@@ -2434,7 +2454,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>80</v>
@@ -2454,7 +2474,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>80</v>
@@ -2474,7 +2494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>38292</v>
       </c>
@@ -2500,7 +2520,7 @@
         <v>38309</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>108</v>
@@ -2522,7 +2542,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38322</v>
       </c>
@@ -2542,7 +2562,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>91</v>
       </c>
@@ -2564,7 +2584,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>38353</v>
       </c>
@@ -2590,7 +2610,7 @@
         <v>38358</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>80</v>
@@ -2607,7 +2627,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>116</v>
@@ -2624,7 +2644,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>38384</v>
       </c>
@@ -2650,7 +2670,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>85</v>
@@ -2669,7 +2689,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>80</v>
@@ -2686,7 +2706,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>117</v>
@@ -2703,7 +2723,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38412</v>
       </c>
@@ -2729,7 +2749,7 @@
         <v>38421</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>82</v>
@@ -2751,7 +2771,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>38443</v>
       </c>
@@ -2775,7 +2795,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>38473</v>
       </c>
@@ -2801,7 +2821,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>85</v>
@@ -2823,7 +2843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>80</v>
@@ -2843,7 +2863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>38504</v>
       </c>
@@ -2869,7 +2889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>85</v>
@@ -2891,7 +2911,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>110</v>
@@ -2911,7 +2931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>38534</v>
       </c>
@@ -2931,7 +2951,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>38565</v>
       </c>
@@ -2957,7 +2977,7 @@
         <v>38583</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>38596</v>
       </c>
@@ -2983,7 +3003,7 @@
         <v>38604</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
@@ -3005,7 +3025,7 @@
         <v>38622</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>38626</v>
       </c>
@@ -3031,7 +3051,7 @@
         <v>38642</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>82</v>
@@ -3053,7 +3073,7 @@
         <v>38638</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>82</v>
@@ -3075,7 +3095,7 @@
         <v>38652</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38657</v>
       </c>
@@ -3101,7 +3121,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>38687</v>
       </c>
@@ -3125,7 +3145,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>92</v>
       </c>
@@ -3147,7 +3167,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>38718</v>
       </c>
@@ -3167,7 +3187,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>38749</v>
       </c>
@@ -3187,7 +3207,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>38777</v>
       </c>
@@ -3207,7 +3227,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>38808</v>
       </c>
@@ -3227,7 +3247,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>38838</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>86</v>
@@ -3273,7 +3293,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>84</v>
@@ -3293,7 +3313,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>38869</v>
       </c>
@@ -3317,7 +3337,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -3339,7 +3359,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>38899</v>
       </c>
@@ -3365,7 +3385,7 @@
         <v>38917</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>38930</v>
       </c>
@@ -3389,7 +3409,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>38961</v>
       </c>
@@ -3409,7 +3429,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>38991</v>
       </c>
@@ -3433,7 +3453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39022</v>
       </c>
@@ -3453,7 +3473,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>39052</v>
       </c>
@@ -3477,7 +3497,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>93</v>
       </c>
@@ -3499,7 +3519,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39083</v>
       </c>
@@ -3525,7 +3545,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>39114</v>
       </c>
@@ -3545,7 +3565,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>39142</v>
       </c>
@@ -3569,7 +3589,7 @@
         <v>39158</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>80</v>
@@ -3589,7 +3609,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>39173</v>
       </c>
@@ -3609,7 +3629,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>39203</v>
       </c>
@@ -3629,7 +3649,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>39234</v>
       </c>
@@ -3653,7 +3673,7 @@
         <v>39258</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>39264</v>
       </c>
@@ -3673,7 +3693,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>39295</v>
       </c>
@@ -3699,7 +3719,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>39326</v>
       </c>
@@ -3725,7 +3745,7 @@
         <v>39358</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>39356</v>
       </c>
@@ -3749,7 +3769,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>88</v>
@@ -3771,7 +3791,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>39387</v>
       </c>
@@ -3791,7 +3811,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>39417</v>
       </c>
@@ -3811,7 +3831,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>94</v>
       </c>
@@ -3833,7 +3853,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>39448</v>
       </c>
@@ -3853,7 +3873,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39479</v>
       </c>
@@ -3873,7 +3893,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>39508</v>
       </c>
@@ -3893,7 +3913,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>39539</v>
       </c>
@@ -3917,7 +3937,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>82</v>
@@ -3939,7 +3959,7 @@
         <v>39564</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>39569</v>
       </c>
@@ -3965,7 +3985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>129</v>
@@ -3987,7 +4007,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>85</v>
@@ -4009,7 +4029,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>88</v>
@@ -4031,7 +4051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>39600</v>
       </c>
@@ -4057,7 +4077,7 @@
         <v>39605</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>107</v>
@@ -4079,7 +4099,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>146</v>
@@ -4101,7 +4121,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39630</v>
       </c>
@@ -4127,7 +4147,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>129</v>
@@ -4149,7 +4169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>147</v>
@@ -4171,7 +4191,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>83</v>
@@ -4193,7 +4213,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>85</v>
@@ -4215,7 +4235,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>82</v>
@@ -4237,7 +4257,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>39661</v>
       </c>
@@ -4257,7 +4277,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39692</v>
       </c>
@@ -4283,7 +4303,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>107</v>
@@ -4305,7 +4325,7 @@
         <v>39732</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>39722</v>
       </c>
@@ -4331,7 +4351,7 @@
         <v>39728</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>82</v>
@@ -4353,7 +4373,7 @@
         <v>39730</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>39753</v>
       </c>
@@ -4379,7 +4399,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>39783</v>
       </c>
@@ -4405,7 +4425,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>95</v>
       </c>
@@ -4427,7 +4447,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>39814</v>
       </c>
@@ -4451,7 +4471,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>156</v>
@@ -4473,7 +4493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>39845</v>
       </c>
@@ -4493,7 +4513,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>39873</v>
       </c>
@@ -4513,7 +4533,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>39904</v>
       </c>
@@ -4533,7 +4553,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>39934</v>
       </c>
@@ -4559,7 +4579,7 @@
         <v>39945</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>39965</v>
       </c>
@@ -4583,7 +4603,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>157</v>
@@ -4603,7 +4623,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39995</v>
       </c>
@@ -4629,7 +4649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>158</v>
@@ -4649,7 +4669,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>40026</v>
       </c>
@@ -4675,7 +4695,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>159</v>
@@ -4695,7 +4715,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>40057</v>
       </c>
@@ -4721,7 +4741,7 @@
         <v>40071</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>82</v>
@@ -4743,7 +4763,7 @@
         <v>40089</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>160</v>
@@ -4763,7 +4783,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>40087</v>
       </c>
@@ -4787,7 +4807,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>40118</v>
       </c>
@@ -4811,7 +4831,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>40148</v>
       </c>
@@ -4837,7 +4857,7 @@
         <v>40158</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>167</v>
@@ -4857,7 +4877,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>96</v>
       </c>
@@ -4879,7 +4899,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40179</v>
       </c>
@@ -4905,7 +4925,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>169</v>
@@ -4925,7 +4945,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40210</v>
       </c>
@@ -4951,7 +4971,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>40238</v>
       </c>
@@ -4975,7 +4995,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>82</v>
@@ -4997,7 +5017,7 @@
         <v>40260</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>82</v>
@@ -5019,7 +5039,7 @@
         <v>40274</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>171</v>
@@ -5039,7 +5059,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40269</v>
       </c>
@@ -5065,7 +5085,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>172</v>
@@ -5085,7 +5105,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40299</v>
       </c>
@@ -5111,7 +5131,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>173</v>
@@ -5131,7 +5151,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>40330</v>
       </c>
@@ -5155,7 +5175,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>82</v>
@@ -5177,7 +5197,7 @@
         <v>40346</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>174</v>
@@ -5197,7 +5217,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>40360</v>
       </c>
@@ -5223,7 +5243,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>82</v>
@@ -5245,7 +5265,7 @@
         <v>40388</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>175</v>
@@ -5265,7 +5285,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40391</v>
       </c>
@@ -5289,7 +5309,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>82</v>
@@ -5311,7 +5331,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>182</v>
@@ -5331,7 +5351,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40422</v>
       </c>
@@ -5357,7 +5377,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>83</v>
@@ -5379,7 +5399,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>183</v>
@@ -5399,7 +5419,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>40452</v>
       </c>
@@ -5425,7 +5445,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>82</v>
@@ -5447,7 +5467,7 @@
         <v>40481</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>184</v>
@@ -5467,7 +5487,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40483</v>
       </c>
@@ -5487,7 +5507,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40513</v>
       </c>
@@ -5511,7 +5531,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
         <v>97</v>
       </c>
@@ -5533,7 +5553,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40544</v>
       </c>
@@ -5557,7 +5577,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>40575</v>
       </c>
@@ -5581,7 +5601,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>186</v>
@@ -5601,7 +5621,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40603</v>
       </c>
@@ -5625,7 +5645,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>82</v>
@@ -5647,7 +5667,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>82</v>
@@ -5669,7 +5689,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>82</v>
@@ -5691,7 +5711,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>80</v>
@@ -5711,7 +5731,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>187</v>
@@ -5731,7 +5751,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40634</v>
       </c>
@@ -5755,7 +5775,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>40664</v>
       </c>
@@ -5781,7 +5801,7 @@
         <v>40666</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>196</v>
@@ -5801,7 +5821,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>40695</v>
       </c>
@@ -5827,7 +5847,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>82</v>
@@ -5849,7 +5869,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>197</v>
@@ -5869,7 +5889,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40725</v>
       </c>
@@ -5893,7 +5913,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40756</v>
       </c>
@@ -5917,7 +5937,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40787</v>
       </c>
@@ -5941,7 +5961,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>82</v>
@@ -5963,7 +5983,7 @@
         <v>40809</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40817</v>
       </c>
@@ -5989,7 +6009,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>82</v>
@@ -6011,7 +6031,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>201</v>
@@ -6033,7 +6053,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>202</v>
@@ -6053,7 +6073,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40848</v>
       </c>
@@ -6073,7 +6093,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40878</v>
       </c>
@@ -6093,7 +6113,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>98</v>
       </c>
@@ -6115,7 +6135,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40909</v>
       </c>
@@ -6135,7 +6155,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40940</v>
       </c>
@@ -6159,7 +6179,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>206</v>
@@ -6178,7 +6198,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40969</v>
       </c>
@@ -6204,7 +6224,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>41000</v>
       </c>
@@ -6228,7 +6248,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41030</v>
       </c>
@@ -6252,7 +6272,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41061</v>
       </c>
@@ -6276,7 +6296,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41091</v>
       </c>
@@ -6302,7 +6322,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>210</v>
@@ -6322,7 +6342,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>41122</v>
       </c>
@@ -6346,7 +6366,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="49"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>41153</v>
       </c>
@@ -6372,7 +6392,7 @@
         <v>41156</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>212</v>
@@ -6392,7 +6412,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41183</v>
       </c>
@@ -6418,7 +6438,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>213</v>
@@ -6438,7 +6458,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41214</v>
       </c>
@@ -6462,7 +6482,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>41244</v>
       </c>
@@ -6488,7 +6508,7 @@
         <v>41248</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>201</v>
@@ -6508,7 +6528,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>215</v>
@@ -6528,7 +6548,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>99</v>
       </c>
@@ -6550,7 +6570,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41275</v>
       </c>
@@ -6576,7 +6596,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>80</v>
@@ -6596,7 +6616,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>218</v>
@@ -6613,7 +6633,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41306</v>
       </c>
@@ -6637,7 +6657,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>219</v>
@@ -6657,7 +6677,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41334</v>
       </c>
@@ -6681,7 +6701,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>127</v>
@@ -6703,7 +6723,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>220</v>
@@ -6723,7 +6743,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41365</v>
       </c>
@@ -6747,7 +6767,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41395</v>
       </c>
@@ -6773,7 +6793,7 @@
         <v>41421</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>221</v>
@@ -6793,7 +6813,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41426</v>
       </c>
@@ -6819,7 +6839,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>222</v>
@@ -6839,7 +6859,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41456</v>
       </c>
@@ -6863,7 +6883,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41487</v>
       </c>
@@ -6889,7 +6909,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>224</v>
@@ -6909,7 +6929,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41518</v>
       </c>
@@ -6935,7 +6955,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>79</v>
@@ -6957,7 +6977,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>225</v>
@@ -6977,7 +6997,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41548</v>
       </c>
@@ -7001,7 +7021,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41579</v>
       </c>
@@ -7027,7 +7047,7 @@
         <v>41599</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>79</v>
@@ -7047,7 +7067,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>233</v>
@@ -7067,7 +7087,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41609</v>
       </c>
@@ -7091,7 +7111,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>232</v>
@@ -7111,7 +7131,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="48" t="s">
         <v>100</v>
       </c>
@@ -7133,7 +7153,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41640</v>
       </c>
@@ -7159,7 +7179,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>234</v>
@@ -7179,7 +7199,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41671</v>
       </c>
@@ -7203,7 +7223,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41699</v>
       </c>
@@ -7227,7 +7247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>80</v>
@@ -7247,7 +7267,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>237</v>
@@ -7267,7 +7287,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41730</v>
       </c>
@@ -7291,7 +7311,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41760</v>
       </c>
@@ -7317,7 +7337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>80</v>
@@ -7337,7 +7357,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>82</v>
@@ -7359,7 +7379,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>236</v>
@@ -7379,7 +7399,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41791</v>
       </c>
@@ -7405,7 +7425,7 @@
         <v>41807</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>239</v>
@@ -7425,7 +7445,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41821</v>
       </c>
@@ -7449,7 +7469,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41852</v>
       </c>
@@ -7475,7 +7495,7 @@
         <v>41866</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>240</v>
@@ -7495,7 +7515,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41883</v>
       </c>
@@ -7521,7 +7541,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>82</v>
@@ -7543,7 +7563,7 @@
         <v>41911</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>247</v>
@@ -7563,7 +7583,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41913</v>
       </c>
@@ -7589,7 +7609,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>248</v>
@@ -7609,7 +7629,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41944</v>
       </c>
@@ -7633,7 +7653,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41974</v>
       </c>
@@ -7659,7 +7679,7 @@
         <v>41978</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>250</v>
@@ -7679,7 +7699,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
         <v>101</v>
       </c>
@@ -7701,7 +7721,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42005</v>
       </c>
@@ -7725,7 +7745,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>251</v>
@@ -7745,7 +7765,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42036</v>
       </c>
@@ -7769,7 +7789,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42064</v>
       </c>
@@ -7793,7 +7813,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>80</v>
@@ -7813,7 +7833,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>253</v>
@@ -7833,7 +7853,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42095</v>
       </c>
@@ -7859,7 +7879,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>254</v>
@@ -7879,7 +7899,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42125</v>
       </c>
@@ -7905,7 +7925,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>79</v>
@@ -7927,7 +7947,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>82</v>
@@ -7949,7 +7969,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>223</v>
@@ -7969,7 +7989,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>42156</v>
       </c>
@@ -7995,7 +8015,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>129</v>
@@ -8017,7 +8037,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>175</v>
@@ -8037,7 +8057,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42186</v>
       </c>
@@ -8061,7 +8081,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42217</v>
       </c>
@@ -8085,7 +8105,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42248</v>
       </c>
@@ -8109,7 +8129,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42278</v>
       </c>
@@ -8135,7 +8155,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>185</v>
@@ -8155,7 +8175,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42309</v>
       </c>
@@ -8181,7 +8201,7 @@
         <v>42342</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>263</v>
@@ -8201,7 +8221,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42339</v>
       </c>
@@ -8225,7 +8245,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>102</v>
       </c>
@@ -8247,7 +8267,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42370</v>
       </c>
@@ -8267,7 +8287,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42401</v>
       </c>
@@ -8291,7 +8311,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>42430</v>
       </c>
@@ -8315,7 +8335,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42461</v>
       </c>
@@ -8335,7 +8355,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42491</v>
       </c>
@@ -8359,7 +8379,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42522</v>
       </c>
@@ -8379,7 +8399,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42552</v>
       </c>
@@ -8399,7 +8419,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42583</v>
       </c>
@@ -8425,7 +8445,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42614</v>
       </c>
@@ -8451,7 +8471,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42644</v>
       </c>
@@ -8475,7 +8495,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42675</v>
       </c>
@@ -8495,7 +8515,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42705</v>
       </c>
@@ -8521,7 +8541,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="48" t="s">
         <v>90</v>
       </c>
@@ -8543,7 +8563,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42736</v>
       </c>
@@ -8563,7 +8583,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42767</v>
       </c>
@@ -8587,7 +8607,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>42795</v>
       </c>
@@ -8613,7 +8633,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>107</v>
@@ -8632,7 +8652,7 @@
         <v>42809</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>129</v>
@@ -8651,7 +8671,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>82</v>
@@ -8670,7 +8690,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42826</v>
       </c>
@@ -8690,7 +8710,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42856</v>
       </c>
@@ -8716,7 +8736,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>82</v>
@@ -8738,7 +8758,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42887</v>
       </c>
@@ -8758,7 +8778,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>42917</v>
       </c>
@@ -8778,7 +8798,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42948</v>
       </c>
@@ -8804,7 +8824,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>82</v>
@@ -8826,7 +8846,7 @@
         <v>42969</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42979</v>
       </c>
@@ -8852,7 +8872,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43009</v>
       </c>
@@ -8878,7 +8898,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>82</v>
@@ -8900,7 +8920,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43040</v>
       </c>
@@ -8926,7 +8946,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43070</v>
       </c>
@@ -8952,7 +8972,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>127</v>
@@ -8972,7 +8992,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="48" t="s">
         <v>45</v>
       </c>
@@ -8994,7 +9014,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43101</v>
       </c>
@@ -9018,7 +9038,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43132</v>
       </c>
@@ -9038,7 +9058,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43525</v>
       </c>
@@ -9064,7 +9084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43191</v>
       </c>
@@ -9086,7 +9106,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="41"/>
       <c r="B320" s="15" t="s">
         <v>107</v>
@@ -9110,7 +9130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43221</v>
       </c>
@@ -9132,7 +9152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>82</v>
@@ -9154,7 +9174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>107</v>
@@ -9178,7 +9198,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43252</v>
       </c>
@@ -9198,7 +9218,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43282</v>
       </c>
@@ -9224,7 +9244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43313</v>
       </c>
@@ -9250,7 +9270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43344</v>
       </c>
@@ -9276,7 +9296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43374</v>
       </c>
@@ -9302,7 +9322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43405</v>
       </c>
@@ -9326,7 +9346,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>82</v>
@@ -9348,7 +9368,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9374,7 +9394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
         <v>55</v>
       </c>
@@ -9392,7 +9412,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43466</v>
       </c>
@@ -9416,7 +9436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43497</v>
       </c>
@@ -9434,7 +9454,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43525</v>
       </c>
@@ -9460,7 +9480,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>85</v>
@@ -9482,7 +9502,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43556</v>
       </c>
@@ -9502,7 +9522,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43586</v>
       </c>
@@ -9522,7 +9542,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43617</v>
       </c>
@@ -9546,7 +9566,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>82</v>
@@ -9568,7 +9588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>80</v>
@@ -9590,7 +9610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43647</v>
       </c>
@@ -9610,7 +9630,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43678</v>
       </c>
@@ -9634,7 +9654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>129</v>
@@ -9658,7 +9678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>83</v>
@@ -9680,7 +9700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43709</v>
       </c>
@@ -9704,7 +9724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>82</v>
@@ -9726,7 +9746,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>277</v>
@@ -9748,7 +9768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43739</v>
       </c>
@@ -9768,7 +9788,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43770</v>
       </c>
@@ -9794,7 +9814,7 @@
         <v>43596</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43800</v>
       </c>
@@ -9814,7 +9834,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="48" t="s">
         <v>66</v>
       </c>
@@ -9832,7 +9852,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43831</v>
       </c>
@@ -9854,7 +9874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>82</v>
@@ -9876,7 +9896,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43862</v>
       </c>
@@ -9900,7 +9920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>82</v>
@@ -9922,7 +9942,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43891</v>
       </c>
@@ -9942,7 +9962,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43922</v>
       </c>
@@ -9962,7 +9982,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43952</v>
       </c>
@@ -9982,7 +10002,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>43983</v>
       </c>
@@ -10002,7 +10022,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44013</v>
       </c>
@@ -10026,7 +10046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44044</v>
       </c>
@@ -10046,7 +10066,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44075</v>
       </c>
@@ -10072,7 +10092,7 @@
         <v>44083</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44105</v>
       </c>
@@ -10092,7 +10112,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44136</v>
       </c>
@@ -10112,7 +10132,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44166</v>
       </c>
@@ -10138,7 +10158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
         <v>71</v>
       </c>
@@ -10156,7 +10176,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44197</v>
       </c>
@@ -10176,7 +10196,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44228</v>
       </c>
@@ -10196,7 +10216,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44256</v>
       </c>
@@ -10216,7 +10236,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44287</v>
       </c>
@@ -10236,7 +10256,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44317</v>
       </c>
@@ -10256,7 +10276,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44348</v>
       </c>
@@ -10276,7 +10296,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44378</v>
       </c>
@@ -10302,7 +10322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44409</v>
       </c>
@@ -10322,7 +10342,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44440</v>
       </c>
@@ -10348,7 +10368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44470</v>
       </c>
@@ -10368,7 +10388,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44501</v>
       </c>
@@ -10388,7 +10408,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44531</v>
       </c>
@@ -10414,7 +10434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="48" t="s">
         <v>75</v>
       </c>
@@ -10432,7 +10452,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44562</v>
       </c>
@@ -10452,7 +10472,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44593</v>
       </c>
@@ -10472,7 +10492,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44621</v>
       </c>
@@ -10494,7 +10514,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>80</v>
@@ -10516,7 +10536,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>289</v>
@@ -10536,7 +10556,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="49"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43922</v>
       </c>
@@ -10560,7 +10580,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44682</v>
       </c>
@@ -10584,7 +10604,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44713</v>
       </c>
@@ -10608,7 +10628,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
@@ -10632,7 +10652,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44774</v>
       </c>
@@ -10658,7 +10678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>80</v>
@@ -10678,7 +10698,7 @@
         <v>44785</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>284</v>
@@ -10698,7 +10718,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44805</v>
       </c>
@@ -10724,7 +10744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>283</v>
@@ -10744,7 +10764,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>44835</v>
       </c>
@@ -10768,7 +10788,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>44866</v>
       </c>
@@ -10792,7 +10812,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44896</v>
       </c>
@@ -10816,7 +10836,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>127</v>
@@ -10836,7 +10856,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
         <v>78</v>
       </c>
@@ -10854,7 +10874,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>44957</v>
       </c>
@@ -10878,7 +10898,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>44985</v>
       </c>
@@ -10898,7 +10918,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>45016</v>
       </c>
@@ -10924,7 +10944,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>45046</v>
       </c>
@@ -10944,7 +10964,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>45077</v>
       </c>
@@ -10964,7 +10984,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45107</v>
       </c>
@@ -10988,15 +11008,19 @@
         <v>279</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45138</v>
       </c>
-      <c r="B406" s="20"/>
+      <c r="B406" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="C406" s="13">
         <v>1.25</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="39">
+        <v>1</v>
+      </c>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
       <c r="G406" s="13">
@@ -11006,17 +11030,23 @@
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K406" s="49">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>45169</v>
       </c>
-      <c r="B407" s="20"/>
+      <c r="B407" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="C407" s="13">
         <v>1.25</v>
       </c>
-      <c r="D407" s="39"/>
+      <c r="D407" s="39">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
       <c r="G407" s="13">
@@ -11028,7 +11058,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>45199</v>
       </c>
@@ -11054,38 +11084,38 @@
         <v>290</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A409" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B409" s="20"/>
-      <c r="C409" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D409" s="39"/>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="40"/>
+      <c r="B409" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C409" s="13"/>
+      <c r="D409" s="39">
+        <v>7.3000000000000009E-2</v>
+      </c>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H409" s="39"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B410" s="20" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="C410" s="13">
         <v>1.25</v>
       </c>
       <c r="D410" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
@@ -11096,53 +11126,63 @@
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="20"/>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A411" s="40">
-        <v>45291</v>
-      </c>
+      <c r="K410" s="49">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="C411" s="13"/>
-      <c r="D411" s="39"/>
+      <c r="D411" s="39">
+        <v>0.17300000000000001</v>
+      </c>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
       <c r="G411" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H411" s="39">
-        <v>1</v>
-      </c>
+      <c r="H411" s="39"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="49">
-        <v>45246</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A412" s="40"/>
-      <c r="B412" s="20"/>
-      <c r="C412" s="13"/>
-      <c r="D412" s="39"/>
+      <c r="K411" s="49"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B412" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D412" s="39">
+        <v>2</v>
+      </c>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G412" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H412" s="39"/>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
-      <c r="B413" s="20"/>
+      <c r="B413" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="C413" s="13"/>
-      <c r="D413" s="39"/>
+      <c r="D413" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
       <c r="G413" s="13" t="str">
@@ -11154,27 +11194,41 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A414" s="40"/>
-      <c r="B414" s="20"/>
-      <c r="C414" s="13"/>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B414" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C414" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D414" s="39"/>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H414" s="39"/>
+      <c r="G414" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H414" s="39">
+        <v>1</v>
+      </c>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="20"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K414" s="49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
-      <c r="B415" s="20"/>
+      <c r="B415" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="C415" s="13"/>
-      <c r="D415" s="39"/>
+      <c r="D415" s="39">
+        <v>1</v>
+      </c>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
       <c r="G415" s="13" t="str">
@@ -11184,13 +11238,19 @@
       <c r="H415" s="39"/>
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
-      <c r="K415" s="20"/>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K415" s="49">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
-      <c r="B416" s="20"/>
+      <c r="B416" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="C416" s="13"/>
-      <c r="D416" s="39"/>
+      <c r="D416" s="39">
+        <v>0.46699999999999997</v>
+      </c>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
       <c r="G416" s="13" t="str">
@@ -11200,10 +11260,12 @@
       <c r="H416" s="39"/>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A417" s="40"/>
+      <c r="K416" s="49"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="48" t="s">
+        <v>291</v>
+      </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
@@ -11216,10 +11278,12 @@
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A418" s="40"/>
+      <c r="K417" s="49"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="40">
+        <v>45322</v>
+      </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
       <c r="D418" s="39"/>
@@ -11234,8 +11298,10 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A419" s="40"/>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="40">
+        <v>45351</v>
+      </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
@@ -11250,8 +11316,10 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A420" s="40"/>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="40">
+        <v>45382</v>
+      </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
@@ -11266,8 +11334,10 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A421" s="40"/>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="40">
+        <v>45412</v>
+      </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
@@ -11282,8 +11352,10 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A422" s="40"/>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40">
+        <v>45443</v>
+      </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -11298,8 +11370,10 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A423" s="40"/>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40">
+        <v>45473</v>
+      </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
@@ -11314,8 +11388,10 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A424" s="40"/>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40">
+        <v>45504</v>
+      </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -11330,8 +11406,10 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425" s="40"/>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40">
+        <v>45535</v>
+      </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -11346,8 +11424,10 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A426" s="40"/>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="40">
+        <v>45565</v>
+      </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -11362,7 +11442,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11378,7 +11458,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11394,7 +11474,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11410,7 +11490,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11426,7 +11506,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11442,7 +11522,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11458,7 +11538,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11474,7 +11554,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11490,7 +11570,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11506,7 +11586,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11522,7 +11602,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11538,7 +11618,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11554,7 +11634,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11570,21 +11650,117 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A440" s="41"/>
-      <c r="B440" s="15"/>
-      <c r="C440" s="42"/>
-      <c r="D440" s="43"/>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="40"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="39"/>
       <c r="E440" s="9"/>
-      <c r="F440" s="15"/>
-      <c r="G440" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H440" s="43"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="39"/>
       <c r="I440" s="9"/>
-      <c r="J440" s="12"/>
-      <c r="K440" s="15"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="40"/>
+      <c r="B441" s="20"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="39"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="39"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="20"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="40"/>
+      <c r="B442" s="20"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="39"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="39"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="20"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" s="40"/>
+      <c r="B443" s="20"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="39"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="39"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" s="40"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="40"/>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="39"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="39"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="41"/>
+      <c r="B446" s="15"/>
+      <c r="C446" s="42"/>
+      <c r="D446" s="43"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="15"/>
+      <c r="G446" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="43"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="12"/>
+      <c r="K446" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11601,10 +11777,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11627,28 +11803,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -11661,7 +11837,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11690,21 +11866,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.4000000000000013E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11716,17 +11890,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>278</v>
       </c>
@@ -11750,10 +11924,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>203.39100000000002</v>
+        <v>202.02799999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -11781,7 +11955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11807,7 +11981,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11833,7 +12007,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11859,7 +12033,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11885,7 +12059,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11911,7 +12085,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11937,7 +12111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11963,7 +12137,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11983,7 +12157,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12003,7 +12177,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12023,7 +12197,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12044,7 +12218,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12065,7 +12239,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12086,7 +12260,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12107,7 +12281,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12128,7 +12302,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12149,7 +12323,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12170,7 +12344,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12191,7 +12365,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12212,7 +12386,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12233,7 +12407,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12254,7 +12428,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12275,7 +12449,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12296,7 +12470,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12317,7 +12491,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12338,7 +12512,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12359,7 +12533,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12380,7 +12554,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12401,7 +12575,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12422,7 +12596,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12443,7 +12617,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12452,7 +12626,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12461,7 +12635,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12470,7 +12644,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12479,7 +12653,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12488,7 +12662,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12497,7 +12671,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12506,7 +12680,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12515,7 +12689,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12524,7 +12698,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12533,7 +12707,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12542,7 +12716,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12551,7 +12725,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12560,7 +12734,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12569,7 +12743,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12578,7 +12752,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12587,7 +12761,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12596,7 +12770,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12605,7 +12779,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12614,7 +12788,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12623,7 +12797,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12632,7 +12806,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12641,7 +12815,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12650,7 +12824,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12659,7 +12833,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12668,7 +12842,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12677,7 +12851,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12686,7 +12860,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12695,7 +12869,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12704,7 +12878,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/SALONGA LUCY.xlsx
+++ b/REGULAR/CTO/SALONGA LUCY.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="302">
   <si>
     <t>PERIOD</t>
   </si>
@@ -927,6 +927,18 @@
   </si>
   <si>
     <t>UT(0-0-31)</t>
+  </si>
+  <si>
+    <t>UT(0-1-12)</t>
+  </si>
+  <si>
+    <t>UT(0-1-22)</t>
+  </si>
+  <si>
+    <t>UT(0-0-32)</t>
+  </si>
+  <si>
+    <t>UT(0-1-41)</t>
   </si>
 </sst>
 </file>
@@ -1618,8 +1630,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K446" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K446"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K451" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K451"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1948,12 +1960,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K446"/>
+  <dimension ref="A2:K451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A398" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A395" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F13"/>
-      <selection pane="bottomLeft" activeCell="K406" sqref="K406"/>
+      <selection pane="bottomLeft" activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2126,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>93.027999999999992</v>
+        <v>90.262999999999977</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10899,31 +10911,31 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B401" s="20"/>
-      <c r="C401" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D401" s="39"/>
+      <c r="A401" s="40"/>
+      <c r="B401" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C401" s="13"/>
+      <c r="D401" s="39">
+        <v>0.21000000000000002</v>
+      </c>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G401" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
+      <c r="K401" s="49"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B402" s="20" t="s">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="C402" s="13">
         <v>1.25</v>
@@ -10941,38 +10953,42 @@
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
       <c r="K402" s="49">
-        <v>45001</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B403" s="20"/>
-      <c r="C403" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D403" s="39"/>
+      <c r="A403" s="40"/>
+      <c r="B403" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C403" s="13"/>
+      <c r="D403" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G403" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
-      <c r="K403" s="20"/>
+      <c r="K403" s="49"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B404" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C404" s="13">
         <v>1.25</v>
       </c>
-      <c r="D404" s="39"/>
+      <c r="D404" s="39">
+        <v>1</v>
+      </c>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
       <c r="G404" s="13">
@@ -10982,44 +10998,42 @@
       <c r="H404" s="39"/>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20"/>
+      <c r="K404" s="49">
+        <v>45001</v>
+      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40">
-        <v>45107</v>
-      </c>
+      <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C405" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D405" s="39"/>
+        <v>202</v>
+      </c>
+      <c r="C405" s="13"/>
+      <c r="D405" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G405" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20" t="s">
-        <v>279</v>
-      </c>
+      <c r="K405" s="49"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45138</v>
+        <v>45046</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C406" s="13">
         <v>1.25</v>
       </c>
       <c r="D406" s="39">
-        <v>1</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
@@ -11030,22 +11044,20 @@
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="49">
-        <v>45119</v>
-      </c>
+      <c r="K406" s="20"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C407" s="13">
         <v>1.25</v>
       </c>
       <c r="D407" s="39">
-        <v>6.5000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
@@ -11056,112 +11068,112 @@
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
-      <c r="K407" s="20"/>
+      <c r="K407" s="49">
+        <v>45051</v>
+      </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="40">
-        <v>45199</v>
-      </c>
+      <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C408" s="13">
-        <v>1.25</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C408" s="13"/>
       <c r="D408" s="39">
-        <v>2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H408" s="39"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="20" t="s">
-        <v>290</v>
-      </c>
+      <c r="K408" s="49"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="40"/>
+      <c r="A409" s="40">
+        <v>45107</v>
+      </c>
       <c r="B409" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C409" s="13"/>
-      <c r="D409" s="39">
-        <v>7.3000000000000009E-2</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C409" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D409" s="39"/>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G409" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H409" s="39"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="20"/>
+      <c r="K409" s="20" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40">
-        <v>45230</v>
-      </c>
+      <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C410" s="13">
-        <v>1.25</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C410" s="13"/>
       <c r="D410" s="39">
-        <v>1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G410" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="49">
-        <v>45202</v>
-      </c>
+      <c r="K410" s="20"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40"/>
+      <c r="A411" s="40">
+        <v>45138</v>
+      </c>
       <c r="B411" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C411" s="13"/>
+        <v>292</v>
+      </c>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D411" s="39">
-        <v>0.17300000000000001</v>
+        <v>1</v>
       </c>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H411" s="39"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="49"/>
+      <c r="K411" s="49">
+        <v>45119</v>
+      </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45260</v>
+        <v>45169</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="C412" s="13">
         <v>1.25</v>
       </c>
       <c r="D412" s="39">
-        <v>2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
@@ -11175,81 +11187,85 @@
       <c r="K412" s="20"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="40"/>
+      <c r="A413" s="40">
+        <v>45199</v>
+      </c>
       <c r="B413" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C413" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D413" s="39">
-        <v>8.500000000000002E-2</v>
+        <v>2</v>
       </c>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G413" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H413" s="39"/>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
-      <c r="K413" s="20"/>
+      <c r="K413" s="20" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="40">
-        <v>45291</v>
-      </c>
+      <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C414" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D414" s="39"/>
+        <v>296</v>
+      </c>
+      <c r="C414" s="13"/>
+      <c r="D414" s="39">
+        <v>7.3000000000000009E-2</v>
+      </c>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H414" s="39">
-        <v>1</v>
-      </c>
+      <c r="G414" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="39"/>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="49" t="s">
-        <v>294</v>
-      </c>
+      <c r="K414" s="20"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="40"/>
+      <c r="A415" s="40">
+        <v>45230</v>
+      </c>
       <c r="B415" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C415" s="13"/>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D415" s="39">
         <v>1</v>
       </c>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H415" s="39"/>
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
       <c r="K415" s="49">
-        <v>45289</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39">
-        <v>0.46699999999999997</v>
+        <v>0.17300000000000001</v>
       </c>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
@@ -11263,30 +11279,38 @@
       <c r="K416" s="49"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="B417" s="20"/>
-      <c r="C417" s="13"/>
-      <c r="D417" s="39"/>
+      <c r="A417" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D417" s="39">
+        <v>2</v>
+      </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="49"/>
+      <c r="K417" s="20"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B418" s="20"/>
+      <c r="A418" s="40"/>
+      <c r="B418" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="C418" s="13"/>
-      <c r="D418" s="39"/>
+      <c r="D418" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
       <c r="G418" s="13" t="str">
@@ -11300,29 +11324,39 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
+        <v>45291</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="39"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H419" s="39"/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H419" s="39">
+        <v>1</v>
+      </c>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="49" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B420" s="20"/>
+      <c r="A420" s="40"/>
+      <c r="B420" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="C420" s="13"/>
-      <c r="D420" s="39"/>
+      <c r="D420" s="39">
+        <v>1</v>
+      </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
       <c r="G420" s="13" t="str">
@@ -11332,15 +11366,19 @@
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="49">
+        <v>45289</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="40">
-        <v>45412</v>
-      </c>
-      <c r="B421" s="20"/>
+      <c r="A421" s="40"/>
+      <c r="B421" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="C421" s="13"/>
-      <c r="D421" s="39"/>
+      <c r="D421" s="39">
+        <v>0.46699999999999997</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
       <c r="G421" s="13" t="str">
@@ -11350,11 +11388,11 @@
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="49"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40">
-        <v>45443</v>
+      <c r="A422" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11368,11 +11406,11 @@
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
+      <c r="K422" s="49"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45473</v>
+        <v>45322</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11390,7 +11428,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45504</v>
+        <v>45351</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11408,7 +11446,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45535</v>
+        <v>45382</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11426,7 +11464,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45565</v>
+        <v>45412</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11443,7 +11481,9 @@
       <c r="K426" s="20"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="40"/>
+      <c r="A427" s="40">
+        <v>45443</v>
+      </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
       <c r="D427" s="39"/>
@@ -11459,7 +11499,9 @@
       <c r="K427" s="20"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="40"/>
+      <c r="A428" s="40">
+        <v>45473</v>
+      </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -11475,7 +11517,9 @@
       <c r="K428" s="20"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="40"/>
+      <c r="A429" s="40">
+        <v>45504</v>
+      </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
       <c r="D429" s="39"/>
@@ -11491,7 +11535,9 @@
       <c r="K429" s="20"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="40"/>
+      <c r="A430" s="40">
+        <v>45535</v>
+      </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
       <c r="D430" s="39"/>
@@ -11507,7 +11553,9 @@
       <c r="K430" s="20"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="40"/>
+      <c r="A431" s="40">
+        <v>45565</v>
+      </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
       <c r="D431" s="39"/>
@@ -11747,20 +11795,100 @@
       <c r="K445" s="20"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="41"/>
-      <c r="B446" s="15"/>
-      <c r="C446" s="42"/>
-      <c r="D446" s="43"/>
+      <c r="A446" s="40"/>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="39"/>
       <c r="E446" s="9"/>
-      <c r="F446" s="15"/>
-      <c r="G446" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H446" s="43"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="39"/>
       <c r="I446" s="9"/>
-      <c r="J446" s="12"/>
-      <c r="K446" s="15"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="40"/>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="39"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="40"/>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="39"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H448" s="39"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="40"/>
+      <c r="B449" s="20"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="39"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H449" s="39"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="11"/>
+      <c r="K449" s="20"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" s="40"/>
+      <c r="B450" s="20"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="39"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H450" s="39"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="20"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" s="41"/>
+      <c r="B451" s="15"/>
+      <c r="C451" s="42"/>
+      <c r="D451" s="43"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="15"/>
+      <c r="G451" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H451" s="43"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="12"/>
+      <c r="K451" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11872,13 +12000,15 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="11">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11927,7 +12057,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>202.02799999999999</v>
+        <v>199.26299999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/SALONGA LUCY.xlsx
+++ b/REGULAR/CTO/SALONGA LUCY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A64771-E476-48AC-BA8D-F2AD126E56D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="302">
   <si>
     <t>PERIOD</t>
   </si>
@@ -944,7 +945,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1613,7 +1614,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1630,26 +1631,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K451" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K451"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K451" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K451" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1956,34 +1957,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A395" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A416" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F13"/>
-      <selection pane="bottomLeft" activeCell="F412" sqref="F412"/>
+      <selection pane="bottomLeft" activeCell="B424" sqref="B424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2004,7 +2005,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2024,7 +2025,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2052,7 +2053,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2065,7 +2066,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2082,7 +2083,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2126,7 +2127,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.262999999999977</v>
+        <v>91.512999999999977</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2136,12 +2137,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>109</v>
+        <v>110.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>89</v>
       </c>
@@ -2160,7 +2161,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37987</v>
       </c>
@@ -2180,7 +2181,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>38018</v>
       </c>
@@ -2200,7 +2201,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>38047</v>
       </c>
@@ -2220,7 +2221,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>38078</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>38108</v>
       </c>
@@ -2264,7 +2265,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>38139</v>
       </c>
@@ -2284,7 +2285,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>38169</v>
       </c>
@@ -2308,7 +2309,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>38200</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>104</v>
@@ -2352,7 +2353,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>38231</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>38231</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>82</v>
@@ -2400,7 +2401,7 @@
         <v>38252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>105</v>
@@ -2420,7 +2421,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>38261</v>
       </c>
@@ -2444,7 +2445,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>82</v>
@@ -2466,7 +2467,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>80</v>
@@ -2486,7 +2487,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>80</v>
@@ -2506,7 +2507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>38292</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>38309</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>108</v>
@@ -2554,7 +2555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>38322</v>
       </c>
@@ -2574,7 +2575,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>91</v>
       </c>
@@ -2596,7 +2597,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>38353</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>38358</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>80</v>
@@ -2639,7 +2640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>116</v>
@@ -2656,7 +2657,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>38384</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>85</v>
@@ -2701,7 +2702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>80</v>
@@ -2718,7 +2719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>117</v>
@@ -2735,7 +2736,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>38412</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>38421</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>82</v>
@@ -2783,7 +2784,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>38443</v>
       </c>
@@ -2807,7 +2808,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>38473</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>85</v>
@@ -2855,7 +2856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>80</v>
@@ -2875,7 +2876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>38504</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>85</v>
@@ -2923,7 +2924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>110</v>
@@ -2943,7 +2944,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>38534</v>
       </c>
@@ -2963,7 +2964,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>38565</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>38583</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>38596</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>38604</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
@@ -3037,7 +3038,7 @@
         <v>38622</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>38626</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>38642</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>82</v>
@@ -3085,7 +3086,7 @@
         <v>38638</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>82</v>
@@ -3107,7 +3108,7 @@
         <v>38652</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>38657</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>38687</v>
       </c>
@@ -3157,7 +3158,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>92</v>
       </c>
@@ -3179,7 +3180,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>38718</v>
       </c>
@@ -3199,7 +3200,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>38749</v>
       </c>
@@ -3219,7 +3220,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>38777</v>
       </c>
@@ -3239,7 +3240,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>38808</v>
       </c>
@@ -3259,7 +3260,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>38838</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>86</v>
@@ -3305,7 +3306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>84</v>
@@ -3325,7 +3326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>38869</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -3371,7 +3372,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>38899</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>38917</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>38930</v>
       </c>
@@ -3421,7 +3422,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>38961</v>
       </c>
@@ -3441,7 +3442,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>38991</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>39022</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>39052</v>
       </c>
@@ -3509,7 +3510,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>93</v>
       </c>
@@ -3531,7 +3532,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>39083</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>39114</v>
       </c>
@@ -3577,7 +3578,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>39142</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>39158</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>80</v>
@@ -3621,7 +3622,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>39173</v>
       </c>
@@ -3641,7 +3642,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>39203</v>
       </c>
@@ -3661,7 +3662,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>39234</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>39258</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>39264</v>
       </c>
@@ -3705,7 +3706,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>39295</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>39326</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>39358</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>39356</v>
       </c>
@@ -3781,7 +3782,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>88</v>
@@ -3803,7 +3804,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>39387</v>
       </c>
@@ -3823,7 +3824,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>39417</v>
       </c>
@@ -3843,7 +3844,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>94</v>
       </c>
@@ -3865,7 +3866,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>39448</v>
       </c>
@@ -3885,7 +3886,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>39479</v>
       </c>
@@ -3905,7 +3906,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>39508</v>
       </c>
@@ -3925,7 +3926,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>39539</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>82</v>
@@ -3971,7 +3972,7 @@
         <v>39564</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>39569</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>129</v>
@@ -4019,7 +4020,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>85</v>
@@ -4041,7 +4042,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>88</v>
@@ -4063,7 +4064,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>39600</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>39605</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>107</v>
@@ -4111,7 +4112,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>146</v>
@@ -4133,7 +4134,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>39630</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>129</v>
@@ -4181,7 +4182,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>147</v>
@@ -4203,7 +4204,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>83</v>
@@ -4225,7 +4226,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>85</v>
@@ -4247,7 +4248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>82</v>
@@ -4269,7 +4270,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>39661</v>
       </c>
@@ -4289,7 +4290,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>39692</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>107</v>
@@ -4337,7 +4338,7 @@
         <v>39732</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>39722</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>39728</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>82</v>
@@ -4385,7 +4386,7 @@
         <v>39730</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>39753</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>39783</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
         <v>95</v>
       </c>
@@ -4459,7 +4460,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>39814</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>156</v>
@@ -4505,7 +4506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>39845</v>
       </c>
@@ -4525,7 +4526,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>39873</v>
       </c>
@@ -4545,7 +4546,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>39904</v>
       </c>
@@ -4565,7 +4566,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>39934</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>39945</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>39965</v>
       </c>
@@ -4615,7 +4616,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>157</v>
@@ -4635,7 +4636,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>39995</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>158</v>
@@ -4681,7 +4682,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>40026</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>159</v>
@@ -4727,7 +4728,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>40057</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>40071</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>82</v>
@@ -4775,7 +4776,7 @@
         <v>40089</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>160</v>
@@ -4795,7 +4796,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>40087</v>
       </c>
@@ -4819,7 +4820,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>40118</v>
       </c>
@@ -4843,7 +4844,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>40148</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>40158</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>167</v>
@@ -4889,7 +4890,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>96</v>
       </c>
@@ -4911,7 +4912,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>40179</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>169</v>
@@ -4957,7 +4958,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>40210</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>40238</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>82</v>
@@ -5029,7 +5030,7 @@
         <v>40260</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>82</v>
@@ -5051,7 +5052,7 @@
         <v>40274</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>171</v>
@@ -5071,7 +5072,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>40269</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>172</v>
@@ -5117,7 +5118,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>40299</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>173</v>
@@ -5163,7 +5164,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>40330</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>82</v>
@@ -5209,7 +5210,7 @@
         <v>40346</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>174</v>
@@ -5229,7 +5230,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>40360</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>82</v>
@@ -5277,7 +5278,7 @@
         <v>40388</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>175</v>
@@ -5297,7 +5298,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>40391</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>82</v>
@@ -5343,7 +5344,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>182</v>
@@ -5363,7 +5364,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40422</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>83</v>
@@ -5411,7 +5412,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>183</v>
@@ -5431,7 +5432,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>40452</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>82</v>
@@ -5479,7 +5480,7 @@
         <v>40481</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>184</v>
@@ -5499,7 +5500,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40483</v>
       </c>
@@ -5519,7 +5520,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40513</v>
       </c>
@@ -5543,7 +5544,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="48" t="s">
         <v>97</v>
       </c>
@@ -5565,7 +5566,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>40544</v>
       </c>
@@ -5589,7 +5590,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>40575</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>186</v>
@@ -5633,7 +5634,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40603</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>82</v>
@@ -5679,7 +5680,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>82</v>
@@ -5701,7 +5702,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>82</v>
@@ -5723,7 +5724,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>80</v>
@@ -5743,7 +5744,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>187</v>
@@ -5763,7 +5764,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40634</v>
       </c>
@@ -5787,7 +5788,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>40664</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>40666</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>196</v>
@@ -5833,7 +5834,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>40695</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>82</v>
@@ -5881,7 +5882,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>197</v>
@@ -5901,7 +5902,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40725</v>
       </c>
@@ -5925,7 +5926,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>40756</v>
       </c>
@@ -5949,7 +5950,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40787</v>
       </c>
@@ -5973,7 +5974,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>82</v>
@@ -5995,7 +5996,7 @@
         <v>40809</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40817</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>82</v>
@@ -6043,7 +6044,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>201</v>
@@ -6065,7 +6066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>202</v>
@@ -6085,7 +6086,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>40848</v>
       </c>
@@ -6105,7 +6106,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>40878</v>
       </c>
@@ -6125,7 +6126,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="48" t="s">
         <v>98</v>
       </c>
@@ -6147,7 +6148,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>40909</v>
       </c>
@@ -6167,7 +6168,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40940</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>206</v>
@@ -6210,7 +6211,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>40969</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>41000</v>
       </c>
@@ -6260,7 +6261,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>41030</v>
       </c>
@@ -6284,7 +6285,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>41061</v>
       </c>
@@ -6308,7 +6309,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>41091</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>210</v>
@@ -6354,7 +6355,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>41122</v>
       </c>
@@ -6378,7 +6379,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="49"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>41153</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>41156</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>212</v>
@@ -6424,7 +6425,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>41183</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>213</v>
@@ -6470,7 +6471,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>41214</v>
       </c>
@@ -6494,7 +6495,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>41244</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>41248</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>201</v>
@@ -6540,7 +6541,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>215</v>
@@ -6560,7 +6561,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="48" t="s">
         <v>99</v>
       </c>
@@ -6582,7 +6583,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>41275</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>80</v>
@@ -6628,7 +6629,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>218</v>
@@ -6645,7 +6646,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41306</v>
       </c>
@@ -6669,7 +6670,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>219</v>
@@ -6689,7 +6690,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41334</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>127</v>
@@ -6735,7 +6736,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>220</v>
@@ -6755,7 +6756,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>41365</v>
       </c>
@@ -6779,7 +6780,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>41395</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>41421</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>221</v>
@@ -6825,7 +6826,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>41426</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>222</v>
@@ -6871,7 +6872,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>41456</v>
       </c>
@@ -6895,7 +6896,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>41487</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>224</v>
@@ -6941,7 +6942,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41518</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>79</v>
@@ -6989,7 +6990,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>225</v>
@@ -7009,7 +7010,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>41548</v>
       </c>
@@ -7033,7 +7034,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>41579</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>41599</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>79</v>
@@ -7079,7 +7080,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>233</v>
@@ -7099,7 +7100,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>41609</v>
       </c>
@@ -7123,7 +7124,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>232</v>
@@ -7143,7 +7144,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="48" t="s">
         <v>100</v>
       </c>
@@ -7165,7 +7166,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>41640</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>234</v>
@@ -7211,7 +7212,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>41671</v>
       </c>
@@ -7235,7 +7236,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>41699</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>80</v>
@@ -7279,7 +7280,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>237</v>
@@ -7299,7 +7300,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>41730</v>
       </c>
@@ -7323,7 +7324,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>41760</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>80</v>
@@ -7369,7 +7370,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>82</v>
@@ -7391,7 +7392,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>236</v>
@@ -7411,7 +7412,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>41791</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>41807</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>239</v>
@@ -7457,7 +7458,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>41821</v>
       </c>
@@ -7481,7 +7482,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>41852</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>41866</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>240</v>
@@ -7527,7 +7528,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>41883</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>82</v>
@@ -7575,7 +7576,7 @@
         <v>41911</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>247</v>
@@ -7595,7 +7596,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>41913</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>248</v>
@@ -7641,7 +7642,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>41944</v>
       </c>
@@ -7665,7 +7666,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>41974</v>
       </c>
@@ -7691,7 +7692,7 @@
         <v>41978</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>250</v>
@@ -7711,7 +7712,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="48" t="s">
         <v>101</v>
       </c>
@@ -7733,7 +7734,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>42005</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>251</v>
@@ -7777,7 +7778,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42036</v>
       </c>
@@ -7801,7 +7802,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>42064</v>
       </c>
@@ -7825,7 +7826,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>80</v>
@@ -7845,7 +7846,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>253</v>
@@ -7865,7 +7866,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>42095</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>254</v>
@@ -7911,7 +7912,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42125</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>79</v>
@@ -7959,7 +7960,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>82</v>
@@ -7981,7 +7982,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>223</v>
@@ -8001,7 +8002,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>42156</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>129</v>
@@ -8049,7 +8050,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>175</v>
@@ -8069,7 +8070,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>42186</v>
       </c>
@@ -8093,7 +8094,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>42217</v>
       </c>
@@ -8117,7 +8118,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>42248</v>
       </c>
@@ -8141,7 +8142,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>42278</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>185</v>
@@ -8187,7 +8188,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>42309</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>42342</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>263</v>
@@ -8233,7 +8234,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>42339</v>
       </c>
@@ -8257,7 +8258,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="48" t="s">
         <v>102</v>
       </c>
@@ -8279,7 +8280,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>42370</v>
       </c>
@@ -8299,7 +8300,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>42401</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>42430</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>42461</v>
       </c>
@@ -8367,7 +8368,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>42491</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>42522</v>
       </c>
@@ -8411,7 +8412,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>42552</v>
       </c>
@@ -8431,7 +8432,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>42583</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>42614</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>42644</v>
       </c>
@@ -8507,7 +8508,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>42675</v>
       </c>
@@ -8527,7 +8528,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>42705</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="48" t="s">
         <v>90</v>
       </c>
@@ -8575,7 +8576,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>42736</v>
       </c>
@@ -8595,7 +8596,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>42767</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>42795</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>107</v>
@@ -8664,7 +8665,7 @@
         <v>42809</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>129</v>
@@ -8683,7 +8684,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>82</v>
@@ -8702,7 +8703,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>42826</v>
       </c>
@@ -8722,7 +8723,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>42856</v>
       </c>
@@ -8748,7 +8749,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>82</v>
@@ -8770,7 +8771,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>42887</v>
       </c>
@@ -8790,7 +8791,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>42917</v>
       </c>
@@ -8810,7 +8811,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>42948</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>82</v>
@@ -8858,7 +8859,7 @@
         <v>42969</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>42979</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>43009</v>
       </c>
@@ -8910,7 +8911,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>82</v>
@@ -8932,7 +8933,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>43040</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>43070</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>127</v>
@@ -9004,7 +9005,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="48" t="s">
         <v>45</v>
       </c>
@@ -9026,7 +9027,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>43101</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>43132</v>
       </c>
@@ -9070,7 +9071,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43525</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>43191</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="41"/>
       <c r="B320" s="15" t="s">
         <v>107</v>
@@ -9142,7 +9143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43221</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>82</v>
@@ -9186,7 +9187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>107</v>
@@ -9210,7 +9211,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43252</v>
       </c>
@@ -9230,7 +9231,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>43282</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43313</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43344</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>43374</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43405</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>82</v>
@@ -9380,7 +9381,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43435</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="48" t="s">
         <v>55</v>
       </c>
@@ -9424,7 +9425,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43466</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>43497</v>
       </c>
@@ -9466,7 +9467,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>43525</v>
       </c>
@@ -9492,7 +9493,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>85</v>
@@ -9514,7 +9515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43556</v>
       </c>
@@ -9534,7 +9535,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43586</v>
       </c>
@@ -9554,7 +9555,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>43617</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>82</v>
@@ -9600,7 +9601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>80</v>
@@ -9622,7 +9623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43647</v>
       </c>
@@ -9642,7 +9643,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43678</v>
       </c>
@@ -9666,7 +9667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>129</v>
@@ -9690,7 +9691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>83</v>
@@ -9712,7 +9713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>43709</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>82</v>
@@ -9758,7 +9759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>277</v>
@@ -9780,7 +9781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43739</v>
       </c>
@@ -9800,7 +9801,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>43770</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>43596</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>43800</v>
       </c>
@@ -9846,7 +9847,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="48" t="s">
         <v>66</v>
       </c>
@@ -9864,7 +9865,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>43831</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>82</v>
@@ -9908,7 +9909,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>43862</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>82</v>
@@ -9954,7 +9955,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>43891</v>
       </c>
@@ -9974,7 +9975,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>43922</v>
       </c>
@@ -9994,7 +9995,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>43952</v>
       </c>
@@ -10014,7 +10015,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>43983</v>
       </c>
@@ -10034,7 +10035,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44013</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44044</v>
       </c>
@@ -10078,7 +10079,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44075</v>
       </c>
@@ -10104,7 +10105,7 @@
         <v>44083</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44105</v>
       </c>
@@ -10124,7 +10125,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44136</v>
       </c>
@@ -10144,7 +10145,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44166</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="48" t="s">
         <v>71</v>
       </c>
@@ -10188,7 +10189,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44197</v>
       </c>
@@ -10208,7 +10209,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44228</v>
       </c>
@@ -10228,7 +10229,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44256</v>
       </c>
@@ -10248,7 +10249,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44287</v>
       </c>
@@ -10268,7 +10269,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44317</v>
       </c>
@@ -10288,7 +10289,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44348</v>
       </c>
@@ -10308,7 +10309,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44378</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44409</v>
       </c>
@@ -10354,7 +10355,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>44440</v>
       </c>
@@ -10380,7 +10381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>44470</v>
       </c>
@@ -10400,7 +10401,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44501</v>
       </c>
@@ -10420,7 +10421,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>44531</v>
       </c>
@@ -10446,7 +10447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="48" t="s">
         <v>75</v>
       </c>
@@ -10464,7 +10465,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>44562</v>
       </c>
@@ -10484,7 +10485,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44593</v>
       </c>
@@ -10504,7 +10505,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>44621</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>80</v>
@@ -10548,7 +10549,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>289</v>
@@ -10568,7 +10569,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="49"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>43922</v>
       </c>
@@ -10592,7 +10593,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>44682</v>
       </c>
@@ -10616,7 +10617,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>44713</v>
       </c>
@@ -10640,7 +10641,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
@@ -10664,7 +10665,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>44774</v>
       </c>
@@ -10690,7 +10691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>80</v>
@@ -10710,7 +10711,7 @@
         <v>44785</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>284</v>
@@ -10730,7 +10731,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>44805</v>
       </c>
@@ -10756,7 +10757,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>283</v>
@@ -10776,7 +10777,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>44835</v>
       </c>
@@ -10800,7 +10801,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>44866</v>
       </c>
@@ -10824,7 +10825,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>44896</v>
       </c>
@@ -10848,7 +10849,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>127</v>
@@ -10868,7 +10869,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48" t="s">
         <v>78</v>
       </c>
@@ -10886,7 +10887,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>44957</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>301</v>
@@ -10930,7 +10931,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="49"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>44985</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>300</v>
@@ -10976,7 +10977,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="49"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>45016</v>
       </c>
@@ -11002,7 +11003,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>202</v>
@@ -11022,7 +11023,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="49"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>45046</v>
       </c>
@@ -11046,7 +11047,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>45077</v>
       </c>
@@ -11072,7 +11073,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>298</v>
@@ -11092,7 +11093,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="49"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>45107</v>
       </c>
@@ -11116,7 +11117,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>185</v>
@@ -11136,7 +11137,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>45138</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>45169</v>
       </c>
@@ -11186,7 +11187,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>45199</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>296</v>
@@ -11232,7 +11233,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>45230</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>295</v>
@@ -11278,7 +11279,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="49"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>45260</v>
       </c>
@@ -11302,7 +11303,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>234</v>
@@ -11322,7 +11323,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>45291</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>292</v>
@@ -11370,7 +11371,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>293</v>
@@ -11390,7 +11391,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="49"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="48" t="s">
         <v>291</v>
       </c>
@@ -11408,25 +11409,31 @@
       <c r="J422" s="11"/>
       <c r="K422" s="49"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>45322</v>
       </c>
-      <c r="B423" s="20"/>
-      <c r="C423" s="13"/>
+      <c r="B423" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K423" s="49">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>45351</v>
       </c>
@@ -11444,7 +11451,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>45382</v>
       </c>
@@ -11462,7 +11469,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>45412</v>
       </c>
@@ -11480,7 +11487,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>45443</v>
       </c>
@@ -11498,7 +11505,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>45473</v>
       </c>
@@ -11516,7 +11523,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>45504</v>
       </c>
@@ -11534,7 +11541,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>45535</v>
       </c>
@@ -11552,7 +11559,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>45565</v>
       </c>
@@ -11570,7 +11577,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11586,7 +11593,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11602,7 +11609,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11618,7 +11625,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11634,7 +11641,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11650,7 +11657,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11666,7 +11673,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11682,7 +11689,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11698,7 +11705,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11714,7 +11721,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11730,7 +11737,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11746,7 +11753,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11762,7 +11769,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11778,7 +11785,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11794,7 +11801,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11810,7 +11817,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11826,7 +11833,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11842,7 +11849,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11858,7 +11865,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11874,7 +11881,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="41"/>
       <c r="B451" s="15"/>
       <c r="C451" s="42"/>
@@ -11905,10 +11912,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11931,28 +11938,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -11965,7 +11972,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11994,7 +12001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12020,17 +12027,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>278</v>
       </c>
@@ -12054,10 +12061,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>199.26299999999998</v>
+        <v>201.76299999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -12085,7 +12092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12111,7 +12118,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12137,7 +12144,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12163,7 +12170,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12189,7 +12196,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12215,7 +12222,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12241,7 +12248,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12267,7 +12274,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12287,7 +12294,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12307,7 +12314,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12327,7 +12334,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12348,7 +12355,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12369,7 +12376,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12390,7 +12397,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12411,7 +12418,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12432,7 +12439,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12453,7 +12460,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12474,7 +12481,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12495,7 +12502,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12516,7 +12523,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12537,7 +12544,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12558,7 +12565,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12579,7 +12586,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12600,7 +12607,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12621,7 +12628,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12642,7 +12649,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12663,7 +12670,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12684,7 +12691,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12705,7 +12712,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12726,7 +12733,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12747,7 +12754,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12756,7 +12763,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12765,7 +12772,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12774,7 +12781,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12783,7 +12790,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12792,7 +12799,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12801,7 +12808,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12810,7 +12817,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12819,7 +12826,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12828,7 +12835,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12837,7 +12844,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12846,7 +12853,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12855,7 +12862,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12864,7 +12871,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12873,7 +12880,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12882,7 +12889,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12891,7 +12898,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12900,7 +12907,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12909,7 +12916,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12918,7 +12925,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12927,7 +12934,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12936,7 +12943,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12945,7 +12952,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12954,7 +12961,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12963,7 +12970,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12972,7 +12979,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12981,7 +12988,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12990,7 +12997,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12999,7 +13006,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13008,7 +13015,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
